--- a/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>316.90130669423002</v>
+        <v>316.90130666242152</v>
       </c>
       <c r="C2">
-        <v>286.44765687946983</v>
+        <v>286.44765686350632</v>
       </c>
       <c r="D2">
-        <v>240.1657079475477</v>
+        <v>240.1657079147397</v>
       </c>
       <c r="E2">
-        <v>247.19718268012741</v>
+        <v>247.19718264726373</v>
       </c>
       <c r="F2">
-        <v>237.90765300602897</v>
+        <v>237.90765298656703</v>
       </c>
       <c r="G2">
-        <v>277.21467339668362</v>
+        <v>277.21467337502753</v>
       </c>
       <c r="H2">
-        <v>287.36766941271384</v>
+        <v>287.367669392756</v>
       </c>
       <c r="I2">
-        <v>337.44651075488366</v>
+        <v>337.4465107301624</v>
       </c>
       <c r="J2">
-        <v>300.09027892652102</v>
+        <v>300.09027890902638</v>
       </c>
       <c r="K2">
-        <v>304.75558849783829</v>
+        <v>304.75558848007711</v>
       </c>
       <c r="L2">
-        <v>307.34916494675019</v>
+        <v>307.34916492252296</v>
       </c>
       <c r="M2">
-        <v>331.3385721627202</v>
+        <v>331.33857211745772</v>
       </c>
       <c r="N2">
-        <v>277.55526044338819</v>
+        <v>277.55526040324696</v>
       </c>
       <c r="O2">
-        <v>258.27178098936497</v>
+        <v>258.27178096320824</v>
       </c>
       <c r="P2">
-        <v>257.4669563519418</v>
+        <v>257.46695630767385</v>
       </c>
       <c r="Q2">
-        <v>340.93015246189776</v>
+        <v>340.930152428322</v>
       </c>
       <c r="R2">
-        <v>289.03401605614641</v>
+        <v>289.03401602611632</v>
       </c>
       <c r="S2">
-        <v>328.19889814633518</v>
+        <v>328.19889816086061</v>
       </c>
       <c r="T2">
-        <v>326.38716006096143</v>
+        <v>326.38716000980185</v>
       </c>
       <c r="U2">
-        <v>264.41063647805311</v>
+        <v>264.41063645774886</v>
       </c>
       <c r="V2">
-        <v>322.93124701417514</v>
+        <v>322.93124699454256</v>
       </c>
       <c r="W2">
-        <v>266.26110401607957</v>
+        <v>266.26110399258033</v>
       </c>
       <c r="X2">
-        <v>273.3805358102735</v>
+        <v>273.3805357685909</v>
       </c>
       <c r="Y2">
-        <v>247.88537338009144</v>
+        <v>247.88537334953969</v>
       </c>
       <c r="Z2">
-        <v>275.97818335156626</v>
+        <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>322.70088082784662</v>
+        <v>322.70088079679687</v>
       </c>
       <c r="AB2">
-        <v>295.26554073844341</v>
+        <v>295.26554070416705</v>
       </c>
       <c r="AC2">
-        <v>260.21981689699481</v>
+        <v>260.21981687741038</v>
       </c>
       <c r="AD2">
-        <v>271.8151420200295</v>
+        <v>271.81514198721692</v>
       </c>
       <c r="AE2">
-        <v>267.22780534578675</v>
+        <v>267.22780533165587</v>
       </c>
       <c r="AF2">
-        <v>286.90620715286315</v>
+        <v>286.90620712174075</v>
       </c>
       <c r="AG2">
-        <v>282.68562336145465</v>
+        <v>282.68562333639647</v>
       </c>
       <c r="AH2">
-        <v>339.91879159688875</v>
+        <v>339.91879155381451</v>
       </c>
       <c r="AI2">
-        <v>279.26474046656972</v>
+        <v>279.26474043437639</v>
       </c>
       <c r="AJ2">
-        <v>294.82354614926112</v>
+        <v>294.82354612745098</v>
       </c>
       <c r="AK2">
-        <v>309.82804196971745</v>
+        <v>309.82804194630546</v>
       </c>
       <c r="AL2">
-        <v>334.98879499545092</v>
+        <v>334.98879496692246</v>
       </c>
       <c r="AM2">
-        <v>278.09091109934843</v>
+        <v>278.09091106517894</v>
       </c>
       <c r="AN2">
-        <v>257.47125746302981</v>
+        <v>257.47125743493308</v>
       </c>
       <c r="AO2">
-        <v>268.83931463962824</v>
+        <v>268.83931459566202</v>
       </c>
       <c r="AP2">
-        <v>336.62082724184597</v>
+        <v>336.62082721637069</v>
       </c>
       <c r="AQ2">
-        <v>290.53438229712719</v>
+        <v>290.53438226129396</v>
       </c>
       <c r="AR2">
-        <v>333.02189331035243</v>
+        <v>333.0218932955936</v>
       </c>
       <c r="AS2">
-        <v>323.94880461116634</v>
+        <v>323.94880458699197</v>
       </c>
       <c r="AT2">
-        <v>262.30567250708214</v>
+        <v>262.3056724737595</v>
       </c>
       <c r="AU2">
-        <v>319.54632891029883</v>
+        <v>319.54632888394565</v>
       </c>
       <c r="AV2">
-        <v>269.86739709321796</v>
+        <v>269.86739706412629</v>
       </c>
       <c r="AW2">
-        <v>276.58718268029008</v>
+        <v>276.58718265168494</v>
       </c>
       <c r="AX2">
-        <v>239.39225548462557</v>
+        <v>239.39225545553688</v>
       </c>
       <c r="AY2">
-        <v>267.12067105993242</v>
+        <v>267.12067103713559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>322.28355648371723</v>
+        <v>322.2835564587507</v>
       </c>
       <c r="C3">
-        <v>302.84132634662257</v>
+        <v>302.84132632398467</v>
       </c>
       <c r="D3">
-        <v>261.02361029333315</v>
+        <v>261.02361026402855</v>
       </c>
       <c r="E3">
-        <v>250.70650471017913</v>
+        <v>250.70650462512796</v>
       </c>
       <c r="F3">
-        <v>251.91294171985487</v>
+        <v>251.91294170198782</v>
       </c>
       <c r="G3">
-        <v>278.04299734718495</v>
+        <v>278.04299733451984</v>
       </c>
       <c r="H3">
-        <v>280.14509326538098</v>
+        <v>280.14509322460293</v>
       </c>
       <c r="I3">
-        <v>343.55756122748852</v>
+        <v>343.55756120444732</v>
       </c>
       <c r="J3">
-        <v>302.94721576032771</v>
+        <v>302.94721572994501</v>
       </c>
       <c r="K3">
-        <v>290.42528767957106</v>
+        <v>290.42528766074167</v>
       </c>
       <c r="L3">
-        <v>318.10442343820228</v>
+        <v>318.1044234171485</v>
       </c>
       <c r="M3">
-        <v>320.83642007964693</v>
+        <v>320.83667757376395</v>
       </c>
       <c r="N3">
-        <v>304.71671939959845</v>
+        <v>304.71671936823464</v>
       </c>
       <c r="O3">
-        <v>259.59248886136777</v>
+        <v>259.59248883217685</v>
       </c>
       <c r="P3">
-        <v>291.080518014468</v>
+        <v>291.08051798281264</v>
       </c>
       <c r="Q3">
-        <v>343.22250526755732</v>
+        <v>343.22250523054561</v>
       </c>
       <c r="R3">
-        <v>287.87009584527937</v>
+        <v>287.87009579078614</v>
       </c>
       <c r="S3">
-        <v>334.89263002248299</v>
+        <v>334.89262999925029</v>
       </c>
       <c r="T3">
-        <v>300.62085246409356</v>
+        <v>300.62085244293075</v>
       </c>
       <c r="U3">
-        <v>262.168672258051</v>
+        <v>262.16867223617464</v>
       </c>
       <c r="V3">
-        <v>306.02305938736038</v>
+        <v>306.02305936471896</v>
       </c>
       <c r="W3">
-        <v>291.63011147404313</v>
+        <v>291.630111434041</v>
       </c>
       <c r="X3">
-        <v>268.01580220919118</v>
+        <v>268.01580218153106</v>
       </c>
       <c r="Y3">
-        <v>251.26391708867911</v>
+        <v>251.26391706603798</v>
       </c>
       <c r="Z3">
-        <v>277.14055517973384</v>
+        <v>277.14055514976064</v>
       </c>
       <c r="AA3">
-        <v>331.22858271095151</v>
+        <v>331.22858267290519</v>
       </c>
       <c r="AB3">
-        <v>297.23315619119217</v>
+        <v>297.23315617616936</v>
       </c>
       <c r="AC3">
-        <v>264.41023905543921</v>
+        <v>264.41023903743405</v>
       </c>
       <c r="AD3">
-        <v>249.14622409807137</v>
+        <v>249.14622407500877</v>
       </c>
       <c r="AE3">
-        <v>262.14694828080479</v>
+        <v>262.14694825822619</v>
       </c>
       <c r="AF3">
-        <v>280.57832812851399</v>
+        <v>280.57832810415766</v>
       </c>
       <c r="AG3">
-        <v>286.36646355080518</v>
+        <v>286.36646353360317</v>
       </c>
       <c r="AH3">
-        <v>340.79639412569566</v>
+        <v>340.79639409298545</v>
       </c>
       <c r="AI3">
-        <v>309.79014750230158</v>
+        <v>309.79014749349159</v>
       </c>
       <c r="AJ3">
-        <v>295.47331848242243</v>
+        <v>295.47331846630414</v>
       </c>
       <c r="AK3">
-        <v>317.21111928069348</v>
+        <v>317.21111925824692</v>
       </c>
       <c r="AL3">
-        <v>329.76583085433384</v>
+        <v>329.76583081513331</v>
       </c>
       <c r="AM3">
-        <v>310.0815562957946</v>
+        <v>310.08155626722527</v>
       </c>
       <c r="AN3">
-        <v>254.37018996863529</v>
+        <v>254.3701899394438</v>
       </c>
       <c r="AO3">
-        <v>244.19814854410035</v>
+        <v>244.198148516695</v>
       </c>
       <c r="AP3">
-        <v>343.15307368821857</v>
+        <v>343.1530736621047</v>
       </c>
       <c r="AQ3">
-        <v>297.53469430625017</v>
+        <v>297.53469426246693</v>
       </c>
       <c r="AR3">
-        <v>341.11569958391794</v>
+        <v>341.11569956293391</v>
       </c>
       <c r="AS3">
-        <v>304.86400627742057</v>
+        <v>304.86400624625253</v>
       </c>
       <c r="AT3">
-        <v>263.1247245402061</v>
+        <v>263.12472450936684</v>
       </c>
       <c r="AU3">
-        <v>302.29222272101464</v>
+        <v>302.29222270316336</v>
       </c>
       <c r="AV3">
-        <v>291.23755712624575</v>
+        <v>291.23755709923944</v>
       </c>
       <c r="AW3">
-        <v>273.78950866530977</v>
+        <v>273.78950864241403</v>
       </c>
       <c r="AX3">
-        <v>274.50277423922404</v>
+        <v>274.50277421421822</v>
       </c>
       <c r="AY3">
-        <v>274.24071947108621</v>
+        <v>274.24071943972746</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>316.90130666242152</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>286.44765686350632</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>240.1657079147397</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>247.19718264726373</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>237.90765298656703</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>277.21467337502753</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>287.367669392756</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>337.4465107301624</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>300.09027890902638</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>304.75558848007711</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>307.34916492252296</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>331.33857211745772</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>277.55526040324696</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>258.27178096320824</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>257.46695630767385</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>340.930152428322</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>289.03401602611632</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>328.19889816086061</v>
@@ -588,55 +477,55 @@
         <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>322.70088079679687</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>295.26554070416705</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>260.21981687741038</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>271.81514198721692</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>267.22780533165587</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>286.90620712174075</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>282.68562333639647</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>339.91879155381451</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>279.26474043437639</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>294.82354612745098</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>309.82804194630546</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>334.98879496692246</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>278.09091106517894</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>257.47125743493308</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>268.83931459566202</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>336.62082721637069</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>290.53438226129396</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>333.0218932955936</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>322.2835564587507</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>302.84132632398467</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>261.02361026402855</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>250.70650462512796</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>251.91294170198782</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>278.04299733451984</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>280.14509322460293</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>343.55756120444732</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>302.94721572994501</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>290.42528766074167</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>318.1044234171485</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>320.83667757376395</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>304.71671936823464</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>259.59248883217685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>291.08051798281264</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>343.22250523054561</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>287.87009579078614</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>334.89262999925029</v>
@@ -743,55 +629,55 @@
         <v>277.14055514976064</v>
       </c>
       <c r="AA3">
-        <v>331.22858267290519</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>297.23315617616936</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>264.41023903743405</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>249.14622407500877</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>262.14694825822619</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>280.57832810415766</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>286.36646353360317</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>340.79639409298545</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>309.79014749349159</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>295.47331846630414</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>317.21111925824692</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>329.76583081513331</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>310.08155626722527</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>254.3701899394438</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>244.198148516695</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>343.1530736621047</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>297.53469426246693</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>341.11569956293391</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>316.90130669423002</v>
+        <v>258.27178096320824</v>
       </c>
       <c r="C2">
-        <v>286.44765687946983</v>
+        <v>289.03401602611632</v>
       </c>
       <c r="D2">
-        <v>240.1657079475477</v>
+        <v>257.47125743493308</v>
       </c>
       <c r="E2">
-        <v>247.19718268012741</v>
+        <v>290.53438226129396</v>
       </c>
       <c r="F2">
         <v>237.90765300602897</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>322.28355648371723</v>
+        <v>259.59248883217685</v>
       </c>
       <c r="C3">
-        <v>302.84132634662257</v>
+        <v>287.87009579078614</v>
       </c>
       <c r="D3">
-        <v>261.02361029333315</v>
+        <v>254.3701899394438</v>
       </c>
       <c r="E3">
-        <v>250.70650471017913</v>
+        <v>297.45748213782667</v>
       </c>
       <c r="F3">
         <v>251.91294171985487</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>316.90130669423002</v>
+        <v>277.55526040324696</v>
       </c>
       <c r="C2">
-        <v>286.44765687946983</v>
+        <v>258.27178096320824</v>
       </c>
       <c r="D2">
-        <v>240.1657079475477</v>
+        <v>278.09091106517894</v>
       </c>
       <c r="E2">
-        <v>247.19718268012741</v>
+        <v>257.47125743493308</v>
       </c>
       <c r="F2">
         <v>237.90765300602897</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>322.28355648371723</v>
+        <v>304.71671936823464</v>
       </c>
       <c r="C3">
-        <v>302.84132634662257</v>
+        <v>259.59248883217685</v>
       </c>
       <c r="D3">
-        <v>261.02361029333315</v>
+        <v>310.08155626722527</v>
       </c>
       <c r="E3">
-        <v>250.70650471017913</v>
+        <v>254.3701899394438</v>
       </c>
       <c r="F3">
         <v>251.91294171985487</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>316.90130666242152</v>
+      </c>
+      <c r="C2">
+        <v>286.44765686350632</v>
+      </c>
+      <c r="D2">
+        <v>240.1657079147397</v>
+      </c>
+      <c r="E2">
+        <v>247.19718264726373</v>
+      </c>
+      <c r="F2">
+        <v>237.90765298656703</v>
+      </c>
+      <c r="G2">
+        <v>277.21467337502753</v>
+      </c>
+      <c r="H2">
+        <v>287.367669392756</v>
+      </c>
+      <c r="I2">
+        <v>337.4465107301624</v>
+      </c>
+      <c r="J2">
+        <v>300.09027890902638</v>
+      </c>
+      <c r="K2">
+        <v>304.75558848007711</v>
+      </c>
+      <c r="L2">
+        <v>307.34916492252296</v>
+      </c>
+      <c r="M2">
+        <v>331.33857211745772</v>
+      </c>
+      <c r="N2">
         <v>277.55526040324696</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>258.27178096320824</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>257.46695630767385</v>
+      </c>
+      <c r="Q2">
+        <v>340.930152428322</v>
+      </c>
+      <c r="R2">
+        <v>289.03401602611632</v>
+      </c>
+      <c r="S2">
+        <v>328.19889816086061</v>
+      </c>
+      <c r="T2">
+        <v>326.38716000980185</v>
+      </c>
+      <c r="U2">
+        <v>264.41063645774886</v>
+      </c>
+      <c r="V2">
+        <v>322.93124699454256</v>
+      </c>
+      <c r="W2">
+        <v>266.26110399258033</v>
+      </c>
+      <c r="X2">
+        <v>273.3805357685909</v>
+      </c>
+      <c r="Y2">
+        <v>247.88537334953969</v>
+      </c>
+      <c r="Z2">
+        <v>275.97818332889176</v>
+      </c>
+      <c r="AA2">
+        <v>322.70088079679687</v>
+      </c>
+      <c r="AB2">
+        <v>295.26554070416705</v>
+      </c>
+      <c r="AC2">
+        <v>260.21981687741038</v>
+      </c>
+      <c r="AD2">
+        <v>271.81514198721692</v>
+      </c>
+      <c r="AE2">
+        <v>267.22780533165587</v>
+      </c>
+      <c r="AF2">
+        <v>286.90620712174075</v>
+      </c>
+      <c r="AG2">
+        <v>282.68562333639647</v>
+      </c>
+      <c r="AH2">
+        <v>339.91879155381451</v>
+      </c>
+      <c r="AI2">
+        <v>279.26474043437639</v>
+      </c>
+      <c r="AJ2">
+        <v>294.82354612745098</v>
+      </c>
+      <c r="AK2">
+        <v>309.82804194630546</v>
+      </c>
+      <c r="AL2">
+        <v>334.98879496692246</v>
+      </c>
+      <c r="AM2">
         <v>278.09091106517894</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>257.47125743493308</v>
       </c>
-      <c r="F2">
-        <v>237.90765300602897</v>
-      </c>
-      <c r="G2">
-        <v>277.21467339668362</v>
-      </c>
-      <c r="H2">
-        <v>287.36766941271384</v>
-      </c>
-      <c r="I2">
-        <v>337.44651075488366</v>
-      </c>
-      <c r="J2">
-        <v>300.09027892652102</v>
-      </c>
-      <c r="K2">
-        <v>304.75558849783829</v>
-      </c>
-      <c r="L2">
-        <v>307.34916494675019</v>
-      </c>
-      <c r="M2">
-        <v>331.3385721627202</v>
-      </c>
-      <c r="N2">
-        <v>277.55526044338819</v>
-      </c>
-      <c r="O2">
-        <v>258.27178098936497</v>
-      </c>
-      <c r="P2">
-        <v>257.4669563519418</v>
-      </c>
-      <c r="Q2">
-        <v>340.93015246189776</v>
-      </c>
-      <c r="R2">
-        <v>289.03401605614641</v>
-      </c>
-      <c r="S2">
-        <v>328.19889814633518</v>
-      </c>
-      <c r="T2">
-        <v>326.38716006096143</v>
-      </c>
-      <c r="U2">
-        <v>264.41063647805311</v>
-      </c>
-      <c r="V2">
-        <v>322.93124701417514</v>
-      </c>
-      <c r="W2">
-        <v>266.26110401607957</v>
-      </c>
-      <c r="X2">
-        <v>273.3805358102735</v>
-      </c>
-      <c r="Y2">
-        <v>247.88537338009144</v>
-      </c>
-      <c r="Z2">
-        <v>275.97818335156626</v>
-      </c>
-      <c r="AA2">
-        <v>322.70088082784662</v>
-      </c>
-      <c r="AB2">
-        <v>295.26554073844341</v>
-      </c>
-      <c r="AC2">
-        <v>260.21981689699481</v>
-      </c>
-      <c r="AD2">
-        <v>271.8151420200295</v>
-      </c>
-      <c r="AE2">
-        <v>267.22780534578675</v>
-      </c>
-      <c r="AF2">
-        <v>286.90620715286315</v>
-      </c>
-      <c r="AG2">
-        <v>282.68562336145465</v>
-      </c>
-      <c r="AH2">
-        <v>339.91879159688875</v>
-      </c>
-      <c r="AI2">
-        <v>279.26474046656972</v>
-      </c>
-      <c r="AJ2">
-        <v>294.82354614926112</v>
-      </c>
-      <c r="AK2">
-        <v>309.82804196971745</v>
-      </c>
-      <c r="AL2">
-        <v>334.98879499545092</v>
-      </c>
-      <c r="AM2">
-        <v>278.09091109934843</v>
-      </c>
-      <c r="AN2">
-        <v>257.47125746302981</v>
-      </c>
       <c r="AO2">
-        <v>268.83931463962824</v>
+        <v>268.83931459566202</v>
       </c>
       <c r="AP2">
-        <v>337.01614518976282</v>
+        <v>337.01614515770132</v>
       </c>
       <c r="AQ2">
-        <v>290.53438229712719</v>
+        <v>290.53438226129396</v>
       </c>
       <c r="AR2">
-        <v>333.02189331035243</v>
+        <v>333.0218932955936</v>
       </c>
       <c r="AS2">
-        <v>323.94880461116634</v>
+        <v>323.94880458699197</v>
       </c>
       <c r="AT2">
-        <v>262.30567250708214</v>
+        <v>262.3056724737595</v>
       </c>
       <c r="AU2">
-        <v>319.54632891029883</v>
+        <v>319.54632888394565</v>
       </c>
       <c r="AV2">
-        <v>269.86739709321796</v>
+        <v>269.86739706412629</v>
       </c>
       <c r="AW2">
-        <v>276.58718268029008</v>
+        <v>276.58718265168494</v>
       </c>
       <c r="AX2">
-        <v>239.39225548462557</v>
+        <v>239.39225545553688</v>
       </c>
       <c r="AY2">
-        <v>267.12067105993242</v>
+        <v>267.12067103713559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>322.2835564587507</v>
+      </c>
+      <c r="C3">
+        <v>302.84132632398467</v>
+      </c>
+      <c r="D3">
+        <v>261.02361026402855</v>
+      </c>
+      <c r="E3">
+        <v>250.70650462512796</v>
+      </c>
+      <c r="F3">
+        <v>251.91294170198782</v>
+      </c>
+      <c r="G3">
+        <v>278.04299733451984</v>
+      </c>
+      <c r="H3">
+        <v>280.14509322460293</v>
+      </c>
+      <c r="I3">
+        <v>343.55756120444732</v>
+      </c>
+      <c r="J3">
+        <v>302.94721572994501</v>
+      </c>
+      <c r="K3">
+        <v>290.42528766074167</v>
+      </c>
+      <c r="L3">
+        <v>318.1044234171485</v>
+      </c>
+      <c r="M3">
+        <v>320.83667757376395</v>
+      </c>
+      <c r="N3">
         <v>304.71671936823464</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>259.59248883217685</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>291.08051798281264</v>
+      </c>
+      <c r="Q3">
+        <v>343.22250523054561</v>
+      </c>
+      <c r="R3">
+        <v>287.87009579078614</v>
+      </c>
+      <c r="S3">
+        <v>334.89262999925029</v>
+      </c>
+      <c r="T3">
+        <v>300.62085244293075</v>
+      </c>
+      <c r="U3">
+        <v>262.16867223617464</v>
+      </c>
+      <c r="V3">
+        <v>306.02305936471896</v>
+      </c>
+      <c r="W3">
+        <v>291.63490668037747</v>
+      </c>
+      <c r="X3">
+        <v>268.01580218153106</v>
+      </c>
+      <c r="Y3">
+        <v>251.26391706603798</v>
+      </c>
+      <c r="Z3">
+        <v>277.14055514976064</v>
+      </c>
+      <c r="AA3">
+        <v>331.22858267290519</v>
+      </c>
+      <c r="AB3">
+        <v>297.23315617616936</v>
+      </c>
+      <c r="AC3">
+        <v>264.41023903743405</v>
+      </c>
+      <c r="AD3">
+        <v>249.14622407500877</v>
+      </c>
+      <c r="AE3">
+        <v>262.14694825822619</v>
+      </c>
+      <c r="AF3">
+        <v>280.57832810415766</v>
+      </c>
+      <c r="AG3">
+        <v>286.36646353360317</v>
+      </c>
+      <c r="AH3">
+        <v>340.67251025252983</v>
+      </c>
+      <c r="AI3">
+        <v>309.79014749349159</v>
+      </c>
+      <c r="AJ3">
+        <v>295.47331846630414</v>
+      </c>
+      <c r="AK3">
+        <v>317.21111925824692</v>
+      </c>
+      <c r="AL3">
+        <v>329.76583081513331</v>
+      </c>
+      <c r="AM3">
         <v>310.08155626722527</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>254.3701899394438</v>
       </c>
-      <c r="F3">
-        <v>251.91294171985487</v>
-      </c>
-      <c r="G3">
-        <v>278.04299734718495</v>
-      </c>
-      <c r="H3">
-        <v>280.14509326538098</v>
-      </c>
-      <c r="I3">
-        <v>343.55756122748852</v>
-      </c>
-      <c r="J3">
-        <v>302.94721576032771</v>
-      </c>
-      <c r="K3">
-        <v>290.42528767957106</v>
-      </c>
-      <c r="L3">
-        <v>318.10442343820228</v>
-      </c>
-      <c r="M3">
-        <v>320.83642007964693</v>
-      </c>
-      <c r="N3">
-        <v>304.71671939959845</v>
-      </c>
-      <c r="O3">
-        <v>259.59248886136777</v>
-      </c>
-      <c r="P3">
-        <v>291.080518014468</v>
-      </c>
-      <c r="Q3">
-        <v>343.22250526755732</v>
-      </c>
-      <c r="R3">
-        <v>287.87009584527937</v>
-      </c>
-      <c r="S3">
-        <v>334.89263002248299</v>
-      </c>
-      <c r="T3">
-        <v>300.62085246409356</v>
-      </c>
-      <c r="U3">
-        <v>262.168672258051</v>
-      </c>
-      <c r="V3">
-        <v>306.02305938736038</v>
-      </c>
-      <c r="W3">
-        <v>291.63490671366213</v>
-      </c>
-      <c r="X3">
-        <v>268.01580220919118</v>
-      </c>
-      <c r="Y3">
-        <v>251.26391708867911</v>
-      </c>
-      <c r="Z3">
-        <v>277.14055517973384</v>
-      </c>
-      <c r="AA3">
-        <v>331.22858271095151</v>
-      </c>
-      <c r="AB3">
-        <v>297.23315619119217</v>
-      </c>
-      <c r="AC3">
-        <v>264.41023905543921</v>
-      </c>
-      <c r="AD3">
-        <v>249.14622409807137</v>
-      </c>
-      <c r="AE3">
-        <v>262.14694828080479</v>
-      </c>
-      <c r="AF3">
-        <v>280.57832812851399</v>
-      </c>
-      <c r="AG3">
-        <v>286.36646355080518</v>
-      </c>
-      <c r="AH3">
-        <v>340.67251028240037</v>
-      </c>
-      <c r="AI3">
-        <v>309.79014750230158</v>
-      </c>
-      <c r="AJ3">
-        <v>295.47331848242243</v>
-      </c>
-      <c r="AK3">
-        <v>317.21111928069348</v>
-      </c>
-      <c r="AL3">
-        <v>329.76583085433384</v>
-      </c>
-      <c r="AM3">
-        <v>310.0815562957946</v>
-      </c>
-      <c r="AN3">
-        <v>254.37018996863529</v>
-      </c>
       <c r="AO3">
-        <v>244.19814854410035</v>
+        <v>244.198148516695</v>
       </c>
       <c r="AP3">
-        <v>343.15307368821857</v>
+        <v>343.1530736621047</v>
       </c>
       <c r="AQ3">
-        <v>297.45748218200782</v>
+        <v>297.45748213782667</v>
       </c>
       <c r="AR3">
-        <v>341.11569958391794</v>
+        <v>341.11569956293391</v>
       </c>
       <c r="AS3">
-        <v>304.86400627742057</v>
+        <v>304.86400624625253</v>
       </c>
       <c r="AT3">
-        <v>263.1247245402061</v>
+        <v>263.12472450936684</v>
       </c>
       <c r="AU3">
-        <v>302.29222272101464</v>
+        <v>302.29222270316336</v>
       </c>
       <c r="AV3">
-        <v>291.23755712624575</v>
+        <v>291.23755709923944</v>
       </c>
       <c r="AW3">
-        <v>273.78950866530977</v>
+        <v>273.78950864241403</v>
       </c>
       <c r="AX3">
-        <v>274.50277423922404</v>
+        <v>274.50277421421822</v>
       </c>
       <c r="AY3">
-        <v>274.24071947108621</v>
+        <v>274.24071943972746</v>
       </c>
     </row>
   </sheetData>
